--- a/assets/upload/format.xlsx
+++ b/assets/upload/format.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -156,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>44197</v>
+        <v>44560</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>44197</v>
+        <v>44560</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>44197</v>
+        <v>44560</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
